--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_50.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_50.xlsx
@@ -58,16 +58,7 @@
     <t>Resources viewed</t>
   </si>
   <si>
-    <t>Number of sessions</t>
-  </si>
-  <si>
-    <t>Days with no interaction (%)</t>
-  </si>
-  <si>
     <t>Largest period of inactivity (h)</t>
-  </si>
-  <si>
-    <t>Start of Session 1 (%)</t>
   </si>
   <si>
     <t>Clicks on course</t>
@@ -76,13 +67,16 @@
     <t>Links viewed</t>
   </si>
   <si>
-    <t>Start of Session 2 (%)</t>
+    <t>Number of sessions</t>
   </si>
   <si>
-    <t>Clicks on folder</t>
+    <t>Days with no interaction (%)</t>
   </si>
   <si>
-    <t>Start of Session 10 (%)</t>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 2 (%)</t>
   </si>
   <si>
     <t>Clicks (% of course total)</t>
@@ -100,52 +94,58 @@
     <t>Average session duration (min)</t>
   </si>
   <si>
-    <t>Clicks on forum</t>
+    <t>Start of Session 10 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 9 (%)</t>
+  </si>
+  <si>
+    <t>Number of days</t>
   </si>
   <si>
     <t>Assignments viewed</t>
   </si>
   <si>
-    <t>Start of Session 4 (%)</t>
+    <t>Clicks on forum</t>
   </si>
   <si>
-    <t>Number of days</t>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
+    <t>Start of Session 4 (%)</t>
   </si>
   <si>
     <t>Start of Session 3 (%)</t>
   </si>
   <si>
-    <t>Start of Session 9 (%)</t>
+    <t>Quizzes started</t>
+  </si>
+  <si>
+    <t>Start of Session 6 (%)</t>
+  </si>
+  <si>
+    <t>Assignments submitted</t>
+  </si>
+  <si>
+    <t>Forum posts</t>
+  </si>
+  <si>
+    <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
+    <t>Discussions viewed</t>
   </si>
   <si>
     <t>Start of Session 8 (%)</t>
   </si>
   <si>
-    <t>Quizzes started</t>
-  </si>
-  <si>
-    <t>Forum posts</t>
-  </si>
-  <si>
-    <t>Start of Session 6 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 7 (%)</t>
-  </si>
-  <si>
-    <t>Assignments submitted</t>
+    <t>Submissions (% of course total)</t>
   </si>
   <si>
     <t>Files downloaded</t>
-  </si>
-  <si>
-    <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Submissions (% of course total)</t>
   </si>
 </sst>
 </file>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -666,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -674,13 +674,13 @@
         <v>14</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -750,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -770,13 +770,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -805,16 +805,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -872,25 +872,25 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -907,22 +907,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -962,10 +962,10 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1058,7 +1058,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -1067,22 +1067,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1157,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -1166,16 +1166,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -1218,7 +1218,7 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -1230,16 +1230,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -1285,10 +1285,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1320,13 +1320,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1410,10 +1410,10 @@
         <v>37</v>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1708,7 +1708,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1717,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -1735,12 +1735,12 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1772,16 +1772,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1804,16 +1804,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1836,16 +1836,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1863,18 +1863,18 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2124,13 +2124,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -2156,31 +2156,31 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -2197,10 +2197,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -2220,31 +2220,31 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -2252,34 +2252,34 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2316,7 +2316,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2392,19 +2392,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B30" t="b">
         <v>1</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2914,13 +2914,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -2937,16 +2937,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -2969,16 +2969,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -2996,18 +2996,18 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -3028,12 +3028,12 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3042,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -3051,21 +3051,21 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3074,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -3083,30 +3083,30 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -3129,13 +3129,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -3147,13 +3147,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -3161,13 +3161,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -3179,13 +3179,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>6</v>
@@ -3193,13 +3193,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -3220,15 +3220,15 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -3243,33 +3243,33 @@
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -3289,34 +3289,34 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -3348,24 +3348,24 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -3380,18 +3380,18 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -3412,18 +3412,18 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3455,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -3476,18 +3476,18 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -3508,18 +3508,18 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -3528,39 +3528,39 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -3572,27 +3572,27 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -3604,18 +3604,18 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -3636,18 +3636,18 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3668,18 +3668,18 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -3732,18 +3732,18 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -3764,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3775,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3919,7 +3919,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -3937,12 +3937,12 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4038,16 +4038,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4102,16 +4102,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -4134,13 +4134,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -4198,10 +4198,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -4216,21 +4216,21 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -4239,30 +4239,30 @@
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -4289,36 +4289,36 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -4370,19 +4370,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -4390,13 +4390,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -4449,18 +4449,18 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -4469,24 +4469,24 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -4550,10 +4550,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -4565,16 +4565,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -4582,13 +4582,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -4597,16 +4597,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -4614,13 +4614,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -4629,16 +4629,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -4646,16 +4646,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4751,13 +4751,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4783,13 +4783,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4815,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -4833,12 +4833,12 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_50.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_50.xlsx
@@ -58,22 +58,22 @@
     <t>Resources viewed</t>
   </si>
   <si>
+    <t>Number of sessions</t>
+  </si>
+  <si>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
     <t>Largest period of inactivity (h)</t>
+  </si>
+  <si>
+    <t>Start of Session 1 (%)</t>
   </si>
   <si>
     <t>Clicks on course</t>
   </si>
   <si>
     <t>Links viewed</t>
-  </si>
-  <si>
-    <t>Number of sessions</t>
-  </si>
-  <si>
-    <t>Days with no interaction (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 1 (%)</t>
   </si>
   <si>
     <t>Start of Session 2 (%)</t>
@@ -88,64 +88,64 @@
     <t>Clicks per day</t>
   </si>
   <si>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
     <t>Number of clicks</t>
+  </si>
+  <si>
+    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Average session duration (min)</t>
   </si>
   <si>
-    <t>Start of Session 10 (%)</t>
+    <t>Clicks on forum</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Number of days</t>
+  </si>
+  <si>
+    <t>Start of Session 4 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 7 (%)</t>
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
   </si>
   <si>
-    <t>Number of days</t>
+    <t>Start of Session 3 (%)</t>
   </si>
   <si>
-    <t>Assignments viewed</t>
+    <t>Start of Session 6 (%)</t>
   </si>
   <si>
-    <t>Clicks on forum</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 3 (%)</t>
+    <t>Start of Session 5 (%)</t>
   </si>
   <si>
     <t>Quizzes started</t>
   </si>
   <si>
-    <t>Start of Session 6 (%)</t>
+    <t>Forum posts</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Assignments submitted</t>
   </si>
   <si>
-    <t>Forum posts</t>
-  </si>
-  <si>
-    <t>Start of Session 7 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
     <t>Discussions viewed</t>
   </si>
   <si>
-    <t>Start of Session 8 (%)</t>
+    <t>Files downloaded</t>
   </si>
   <si>
     <t>Submissions (% of course total)</t>
-  </si>
-  <si>
-    <t>Files downloaded</t>
   </si>
 </sst>
 </file>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -666,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -674,13 +674,13 @@
         <v>14</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -750,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -770,13 +770,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -805,16 +805,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -994,10 +994,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1058,7 +1058,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -1067,22 +1067,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1090,13 +1090,13 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1154,13 +1154,13 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1186,28 +1186,28 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -1221,7 +1221,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1349,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>37</v>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1644,7 +1644,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1767,12 +1767,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1836,10 +1836,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -1863,18 +1863,18 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1900,19 +1900,19 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -1927,12 +1927,12 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1964,13 +1964,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -1979,16 +1979,16 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -2028,31 +2028,31 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -2060,22 +2060,22 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2124,22 +2124,22 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -2197,10 +2197,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -2220,13 +2220,13 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -2264,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -2279,12 +2279,12 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -2311,12 +2311,12 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2421,13 +2421,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -2444,16 +2444,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2540,10 +2540,10 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2850,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -2868,12 +2868,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -2969,13 +2969,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -2996,27 +2996,27 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -3028,12 +3028,12 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3042,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -3051,21 +3051,21 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3074,22 +3074,22 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -3097,13 +3097,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -3112,16 +3112,16 @@
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -3129,13 +3129,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -3147,13 +3147,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -3161,22 +3161,22 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -3193,10 +3193,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -3205,10 +3205,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -3220,12 +3220,12 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -3240,30 +3240,30 @@
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -3272,16 +3272,16 @@
         <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -3289,13 +3289,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -3316,12 +3316,12 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -3353,19 +3353,19 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -3385,13 +3385,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -3412,18 +3412,18 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -3432,30 +3432,30 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -3476,18 +3476,18 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -3496,16 +3496,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -3513,13 +3513,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -3528,16 +3528,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -3563,27 +3563,27 @@
         <v>0</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -3604,27 +3604,27 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -3636,12 +3636,12 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3650,13 +3650,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3682,13 +3682,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3942,16 +3942,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4070,16 +4070,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -4102,16 +4102,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -4129,12 +4129,12 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4143,22 +4143,22 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -4166,16 +4166,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -4184,13 +4184,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -4198,22 +4198,22 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -4230,22 +4230,22 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -4262,22 +4262,22 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -4289,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4358,7 +4358,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -4417,18 +4417,18 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -4449,15 +4449,15 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -4469,16 +4469,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -4486,13 +4486,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -4513,18 +4513,18 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -4533,30 +4533,30 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -4568,13 +4568,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -4614,13 +4614,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -4629,16 +4629,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -4673,21 +4673,21 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -4865,12 +4865,12 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_50.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_50.xlsx
@@ -58,25 +58,25 @@
     <t>Resources viewed</t>
   </si>
   <si>
+    <t>Largest period of inactivity (h)</t>
+  </si>
+  <si>
     <t>Number of sessions</t>
   </si>
   <si>
     <t>Days with no interaction (%)</t>
   </si>
   <si>
-    <t>Largest period of inactivity (h)</t>
+    <t>Start of Session 1 (%)</t>
   </si>
   <si>
-    <t>Start of Session 1 (%)</t>
+    <t>Start of Session 2 (%)</t>
   </si>
   <si>
     <t>Clicks on course</t>
   </si>
   <si>
     <t>Links viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 2 (%)</t>
   </si>
   <si>
     <t>Clicks (% of course total)</t>
@@ -100,49 +100,49 @@
     <t>Average session duration (min)</t>
   </si>
   <si>
-    <t>Clicks on forum</t>
-  </si>
-  <si>
     <t>Assignments viewed</t>
   </si>
   <si>
     <t>Number of days</t>
   </si>
   <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 7 (%)</t>
+    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
   </si>
   <si>
+    <t>Start of Session 4 (%)</t>
+  </si>
+  <si>
     <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
+  </si>
+  <si>
+    <t>Quizzes started</t>
   </si>
   <si>
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Quizzes started</t>
-  </si>
-  <si>
     <t>Forum posts</t>
   </si>
   <si>
-    <t>Start of Session 8 (%)</t>
+    <t>Assignments submitted</t>
   </si>
   <si>
-    <t>Assignments submitted</t>
+    <t>Start of Session 5 (%)</t>
   </si>
   <si>
     <t>Discussions viewed</t>
   </si>
   <si>
     <t>Files downloaded</t>
+  </si>
+  <si>
+    <t>Start of Session 7 (%)</t>
   </si>
   <si>
     <t>Submissions (% of course total)</t>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -666,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -674,10 +674,10 @@
         <v>14</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -706,13 +706,13 @@
         <v>15</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -730,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -762,7 +762,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -805,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -837,7 +837,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -846,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -962,10 +962,10 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1029,13 +1029,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -1090,13 +1090,13 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1154,13 +1154,13 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -1198,19 +1198,19 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1218,19 +1218,19 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1282,10 +1282,10 @@
         <v>33</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -1320,13 +1320,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1644,7 +1644,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1836,16 +1836,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1863,18 +1863,18 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1895,27 +1895,27 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -1927,21 +1927,21 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -1950,21 +1950,21 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -1976,19 +1976,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -1996,10 +1996,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -2028,31 +2028,31 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -2060,13 +2060,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2124,13 +2124,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -2139,16 +2139,16 @@
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -2156,16 +2156,16 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -2252,31 +2252,31 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2316,13 +2316,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -2334,13 +2334,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2380,10 +2380,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -2395,16 +2395,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -2430,30 +2430,30 @@
         <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2549,13 +2549,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2873,16 +2873,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3036,7 +3036,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -3060,12 +3060,12 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3074,22 +3074,22 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3129,16 +3129,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -3147,13 +3147,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -3193,22 +3193,22 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -3220,12 +3220,12 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -3240,27 +3240,27 @@
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -3272,16 +3272,16 @@
         <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -3289,16 +3289,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -3321,13 +3321,13 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -3348,12 +3348,12 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -3380,12 +3380,12 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -3412,15 +3412,15 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -3444,12 +3444,12 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -3496,27 +3496,27 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -3540,21 +3540,21 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3618,13 +3618,13 @@
         <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -3641,22 +3641,22 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -3668,27 +3668,27 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -3764,18 +3764,18 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4143,22 +4143,22 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -4166,16 +4166,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -4184,13 +4184,13 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -4198,22 +4198,22 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4271,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -4289,12 +4289,12 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4306,19 +4306,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -4390,10 +4390,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -4402,19 +4402,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -4422,10 +4422,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -4518,10 +4518,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -4533,16 +4533,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>4</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -4577,18 +4577,18 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -4600,13 +4600,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4716,10 +4716,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4783,13 +4783,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4870,13 +4870,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_50.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_50.xlsx
@@ -49,28 +49,22 @@
     <t>Feature</t>
   </si>
   <si>
-    <t>Days with no interaction</t>
-  </si>
-  <si>
     <t>Total time online (min)</t>
   </si>
   <si>
     <t>Resources viewed</t>
   </si>
   <si>
-    <t>Largest period of inactivity (h)</t>
-  </si>
-  <si>
-    <t>Number of sessions</t>
+    <t>Days with no interaction</t>
   </si>
   <si>
     <t>Days with no interaction (%)</t>
   </si>
   <si>
-    <t>Start of Session 1 (%)</t>
+    <t>Largest period of inactivity (h)</t>
   </si>
   <si>
-    <t>Start of Session 2 (%)</t>
+    <t>Start of Session 1 (%)</t>
   </si>
   <si>
     <t>Clicks on course</t>
@@ -79,13 +73,10 @@
     <t>Links viewed</t>
   </si>
   <si>
-    <t>Clicks (% of course total)</t>
+    <t>Number of sessions</t>
   </si>
   <si>
-    <t>Clicks per session</t>
-  </si>
-  <si>
-    <t>Clicks per day</t>
+    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Clicks on folder</t>
@@ -94,7 +85,16 @@
     <t>Number of clicks</t>
   </si>
   <si>
-    <t>Start of Session 10 (%)</t>
+    <t>Start of Session 2 (%)</t>
+  </si>
+  <si>
+    <t>Clicks on forum</t>
+  </si>
+  <si>
+    <t>Clicks (% of course total)</t>
+  </si>
+  <si>
+    <t>Clicks per session</t>
   </si>
   <si>
     <t>Average session duration (min)</t>
@@ -103,31 +103,28 @@
     <t>Assignments viewed</t>
   </si>
   <si>
+    <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
+    <t>Clicks per day</t>
+  </si>
+  <si>
     <t>Number of days</t>
   </si>
   <si>
-    <t>Clicks on forum</t>
+    <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 4 (%)</t>
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
   </si>
   <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 8 (%)</t>
+    <t>Forum posts</t>
   </si>
   <si>
     <t>Quizzes started</t>
-  </si>
-  <si>
-    <t>Start of Session 6 (%)</t>
-  </si>
-  <si>
-    <t>Forum posts</t>
   </si>
   <si>
     <t>Assignments submitted</t>
@@ -136,16 +133,19 @@
     <t>Start of Session 5 (%)</t>
   </si>
   <si>
-    <t>Discussions viewed</t>
+    <t>Start of Session 6 (%)</t>
   </si>
   <si>
     <t>Files downloaded</t>
   </si>
   <si>
-    <t>Start of Session 7 (%)</t>
+    <t>Discussions viewed</t>
   </si>
   <si>
     <t>Submissions (% of course total)</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
   </si>
 </sst>
 </file>
@@ -642,13 +642,13 @@
         <v>13</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -677,10 +677,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -706,10 +706,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -718,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -730,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -741,16 +741,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -762,7 +762,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -802,13 +802,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -837,13 +837,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -872,25 +872,25 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -913,16 +913,16 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -942,19 +942,19 @@
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -965,10 +965,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -994,10 +994,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -1026,10 +1026,10 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -1154,28 +1154,28 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1218,19 +1218,19 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -1282,10 +1282,10 @@
         <v>33</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -1352,13 +1352,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1413,10 +1413,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1644,7 +1644,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1767,12 +1767,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1804,16 +1804,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1836,13 +1836,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -1863,18 +1863,18 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1895,27 +1895,27 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -1932,16 +1932,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -1950,21 +1950,21 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -1976,19 +1976,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -1996,10 +1996,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2060,31 +2060,31 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2124,31 +2124,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -2156,19 +2156,19 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -2220,31 +2220,31 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2316,13 +2316,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -2334,13 +2334,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2380,10 +2380,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -2392,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2427,24 +2427,24 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2549,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -2567,12 +2567,12 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2850,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -2868,21 +2868,21 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -2946,13 +2946,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -2969,16 +2969,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3013,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -3028,18 +3028,18 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3129,13 +3129,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -3161,22 +3161,22 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -3193,10 +3193,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -3257,13 +3257,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -3304,30 +3304,30 @@
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -3348,18 +3348,18 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -3380,18 +3380,18 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -3412,18 +3412,18 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -3444,18 +3444,18 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -3476,18 +3476,18 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -3508,18 +3508,18 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -3528,39 +3528,39 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -3572,27 +3572,27 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -3604,27 +3604,27 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -3636,27 +3636,27 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -3668,18 +3668,18 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -3732,18 +3732,18 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -3764,18 +3764,18 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3942,10 +3942,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -3957,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4038,16 +4038,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -4070,16 +4070,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -4105,13 +4105,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -4161,12 +4161,12 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -4175,7 +4175,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -4184,30 +4184,30 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -4216,13 +4216,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4271,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -4289,15 +4289,15 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -4309,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -4449,12 +4449,12 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -4486,10 +4486,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -4501,16 +4501,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -4518,13 +4518,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -4545,15 +4545,15 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -4577,18 +4577,18 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -4600,13 +4600,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4646,10 +4646,10 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -4705,21 +4705,21 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4815,13 +4815,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4870,13 +4870,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_50.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_50.xlsx
@@ -49,16 +49,16 @@
     <t>Feature</t>
   </si>
   <si>
+    <t>Days with no interaction</t>
+  </si>
+  <si>
     <t>Total time online (min)</t>
   </si>
   <si>
     <t>Resources viewed</t>
   </si>
   <si>
-    <t>Days with no interaction</t>
-  </si>
-  <si>
-    <t>Days with no interaction (%)</t>
+    <t>Number of sessions</t>
   </si>
   <si>
     <t>Largest period of inactivity (h)</t>
@@ -73,22 +73,16 @@
     <t>Links viewed</t>
   </si>
   <si>
-    <t>Number of sessions</t>
+    <t>Days with no interaction (%)</t>
   </si>
   <si>
-    <t>Start of Session 10 (%)</t>
+    <t>Start of Session 2 (%)</t>
   </si>
   <si>
     <t>Clicks on folder</t>
   </si>
   <si>
-    <t>Number of clicks</t>
-  </si>
-  <si>
-    <t>Start of Session 2 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
+    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Clicks (% of course total)</t>
@@ -97,43 +91,52 @@
     <t>Clicks per session</t>
   </si>
   <si>
+    <t>Clicks per day</t>
+  </si>
+  <si>
+    <t>Number of clicks</t>
+  </si>
+  <si>
     <t>Average session duration (min)</t>
+  </si>
+  <si>
+    <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 9 (%)</t>
   </si>
   <si>
     <t>Assignments viewed</t>
   </si>
   <si>
-    <t>Start of Session 3 (%)</t>
+    <t>Number of days</t>
   </si>
   <si>
-    <t>Clicks per day</t>
+    <t>Clicks on forum</t>
   </si>
   <si>
-    <t>Number of days</t>
+    <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
+    <t>Quizzes started</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
+  </si>
+  <si>
+    <t>Forum posts</t>
+  </si>
+  <si>
+    <t>Start of Session 4 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 6 (%)</t>
   </si>
   <si>
     <t>Start of Session 7 (%)</t>
   </si>
   <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 9 (%)</t>
-  </si>
-  <si>
-    <t>Forum posts</t>
-  </si>
-  <si>
-    <t>Quizzes started</t>
-  </si>
-  <si>
     <t>Assignments submitted</t>
-  </si>
-  <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 6 (%)</t>
   </si>
   <si>
     <t>Files downloaded</t>
@@ -143,9 +146,6 @@
   </si>
   <si>
     <t>Submissions (% of course total)</t>
-  </si>
-  <si>
-    <t>Start of Session 8 (%)</t>
   </si>
 </sst>
 </file>
@@ -642,7 +642,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -666,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -843,10 +843,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -898,10 +898,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -942,19 +942,19 @@
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -971,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -1026,10 +1026,10 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1122,10 +1122,10 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -1157,25 +1157,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -1218,7 +1218,7 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -1233,16 +1233,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1250,7 +1250,7 @@
         <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1317,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1644,7 +1644,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1767,21 +1767,21 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1804,16 +1804,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1836,13 +1836,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1874,7 +1874,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1895,27 +1895,27 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -1932,10 +1932,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -1950,21 +1950,21 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -1976,19 +1976,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -1996,10 +1996,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2060,19 +2060,19 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2124,31 +2124,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -2156,13 +2156,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -2171,30 +2171,30 @@
         <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -2203,33 +2203,33 @@
         <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -2252,16 +2252,16 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -2284,31 +2284,31 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -2316,13 +2316,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -2343,12 +2343,12 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2375,27 +2375,27 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -2427,30 +2427,30 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2471,12 +2471,12 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2549,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -2567,12 +2567,12 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2850,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -2868,21 +2868,21 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -2946,13 +2946,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -2969,16 +2969,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3013,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -3028,24 +3028,24 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3129,13 +3129,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -3161,16 +3161,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -3193,19 +3193,19 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -3220,12 +3220,12 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -3257,13 +3257,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -3304,30 +3304,30 @@
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -3348,12 +3348,12 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -3385,13 +3385,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -3417,13 +3417,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -3444,18 +3444,18 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -3464,30 +3464,30 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -3508,18 +3508,18 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -3528,39 +3528,39 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -3572,27 +3572,27 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -3604,12 +3604,12 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3624,39 +3624,39 @@
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
       <c r="I29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -3668,12 +3668,12 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3682,13 +3682,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -3705,13 +3705,13 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -3732,12 +3732,12 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3919,7 +3919,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -3937,12 +3937,12 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -3951,13 +3951,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4041,10 +4041,10 @@
         <v>17</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -4070,16 +4070,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -4097,15 +4097,15 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -4129,12 +4129,12 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4143,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -4152,30 +4152,30 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -4193,18 +4193,18 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -4216,13 +4216,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -4230,22 +4230,22 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -4257,12 +4257,12 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4294,10 +4294,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -4306,19 +4306,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -4390,45 +4390,45 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -4481,18 +4481,18 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -4501,24 +4501,24 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -4550,13 +4550,13 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -4614,10 +4614,10 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -4632,27 +4632,27 @@
         <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -4673,21 +4673,21 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4751,13 +4751,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4815,13 +4815,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -4865,12 +4865,12 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
